--- a/src/main/resources/static/级差系数.xlsx
+++ b/src/main/resources/static/级差系数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\demo\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9DE8FD-9322-4A72-BDCE-8ED5244B6321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5EB6A-4EAB-4065-BCB6-B8BB2FDA8F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A17552C-8C77-46EB-9FE0-86A056AB8E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A17552C-8C77-46EB-9FE0-86A056AB8E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
   </sheetData>
   <autoFilter ref="A1:C3" xr:uid="{222B375E-8CB4-4D13-8A71-E656471EE785}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C629:C642" xr:uid="{04C3F83B-CFFC-4074-B204-3C795D0E93E7}">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -442,21 +442,12 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A629:A642" xr:uid="{AD9DD47E-2CBA-48B2-87CE-58275D78A829}">
       <formula1>"教学、科研专业技术人员,管理人员,教辅岗位专业技术人员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B629:B642" xr:uid="{2D710D27-3F45-4B16-8B25-96C9B436862F}">
-      <formula1>"二级(正高),三级(正厅)"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="人员类别错误" error="请选择正确的值" sqref="A2:A628" xr:uid="{8924A826-B2B0-4922-9C77-3B35E74F1ED9}">
       <formula1>"教学、科研专业技术人员,管理人员,教辅岗位专业技术人员"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="级别/职务" error="请选择正确的值" sqref="B3:B628" xr:uid="{CFADC808-D56C-49EC-9E33-DBF309DCE498}">
-      <formula1>"二级(正高),三级(正厅)"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="级差系数错误" error="请输入正确的值（0~10）" sqref="C2:C628" xr:uid="{9D7EBBD3-8AB3-4A57-9E79-A9D4C9E9F2E0}">
       <formula1>0</formula1>
       <formula2>10</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="级别/职务错误" error="请选择正确的值" sqref="B2" xr:uid="{02401327-003F-43DE-A382-B93ED8B7E75F}">
-      <formula1>"二级（正高）,三级（正高）,四级（正高）,五级（副高）,六级（副高）,七级（副高）,八级（中级）,九级（中级）,十级（中级）,十一级（助理）,十二级（助理）,十三级（员级）,三级（正厅）,四级（副厅）,五级（正处）,六级（副处）,七级（正科）,八级（副科）,九级（科员）,十级（办事员）,二级（正高）,三级（正高）,四级（正高）,五级（副高）,六级（副高）,七级（副高）,八级（中级）,九级（中级）,十级（中级）,十一级（助理）,十二级（助理）,十三级（员级）"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
